--- a/biology/Zoologie/Callipogon_cinnamomeus/Callipogon_cinnamomeus.xlsx
+++ b/biology/Zoologie/Callipogon_cinnamomeus/Callipogon_cinnamomeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callipogon cinnamomeus est une espèce de coléoptères de la famille des Cerambycidae, de la sous-famille des Prioninae, de la tribu des Callipogonini, du genre Callipogon et du sous-genre Orthomegas.
 </t>
@@ -511,11 +523,47 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Callipogon a été décrit par l'entomologiste suédois Carl von Linné en 1758, sous le nom initial de Cerambyx cinnamomeus. Le nom complet est Callipogon (Orthomegas) cinnamomeus.
-Synonymie [1]
-Cerambyx cinnamomeus Linné, 1758 (protonyme)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Callipogon a été décrit par l'entomologiste suédois Carl von Linné en 1758, sous le nom initial de Cerambyx cinnamomeus. Le nom complet est Callipogon (Orthomegas) cinnamomeus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callipogon_cinnamomeus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callipogon_cinnamomeus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie [1]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cerambyx cinnamomeus Linné, 1758 (protonyme)
 Prionus mucronatus (Fabricius, 1775)
 Cerambyx cinctus (Voet, 1778)
 Prionus corticinus (Olivier, 1790)
@@ -525,35 +573,71 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Callipogon_cinnamomeus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Callipogon_cinnamomeus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolivie, Brésil, Guyane, Pérou.
-Articles liés
-Callipogon
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bolivie, Brésil, Guyane, Pérou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callipogon_cinnamomeus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callipogon_cinnamomeus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles liés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callipogon
 Galerie des Cerambycidae
 Sur les autres projets Wikimedia :
 Callipogon cinnamomeus, sur Wikimedia Commons
